--- a/notes/commission_members.xlsx
+++ b/notes/commission_members.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danpost/housing_project/notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD55A13E-B776-4342-A4DC-2054B8D4CF96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A8A1D02-26A5-4A4B-B107-34679A0CD92A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="15120" windowHeight="17420" xr2:uid="{D88682D4-31DD-7F45-B371-FC36FE543DFE}"/>
+    <workbookView xWindow="15120" yWindow="760" windowWidth="15120" windowHeight="17620" xr2:uid="{D88682D4-31DD-7F45-B371-FC36FE543DFE}"/>
   </bookViews>
   <sheets>
     <sheet name="planning_commission" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="81">
   <si>
     <t>member_first_name</t>
   </si>
@@ -247,6 +247,39 @@
   </si>
   <si>
     <t>gwyneth</t>
+  </si>
+  <si>
+    <t>sean</t>
+  </si>
+  <si>
+    <t>mcgarry</t>
+  </si>
+  <si>
+    <t>present</t>
+  </si>
+  <si>
+    <t>theresa</t>
+  </si>
+  <si>
+    <t>imperial</t>
+  </si>
+  <si>
+    <t>gilbert</t>
+  </si>
+  <si>
+    <t>williams</t>
+  </si>
+  <si>
+    <t>amy</t>
+  </si>
+  <si>
+    <t>campbell</t>
+  </si>
+  <si>
+    <t>derek w.</t>
+  </si>
+  <si>
+    <t>braun</t>
   </si>
 </sst>
 </file>
@@ -627,10 +660,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7AFF627-A220-354D-AE7E-C0095148E11F}">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -733,6 +766,9 @@
       <c r="B7" t="s">
         <v>7</v>
       </c>
+      <c r="D7" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -910,7 +946,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>53</v>
       </c>
@@ -918,7 +954,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>43</v>
       </c>
@@ -926,20 +962,81 @@
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>65</v>
       </c>
       <c r="B35" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D35" t="s">
+        <v>72</v>
+      </c>
+      <c r="E35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>67</v>
       </c>
       <c r="B36" t="s">
         <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D37" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" t="s">
+        <v>74</v>
+      </c>
+      <c r="D38" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" t="s">
+        <v>76</v>
+      </c>
+      <c r="D39" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" t="s">
+        <v>78</v>
+      </c>
+      <c r="D40" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>79</v>
+      </c>
+      <c r="B41" t="s">
+        <v>80</v>
+      </c>
+      <c r="D41" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
